--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-category-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-category-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value Set our spécifier la catégorie de l'essai clinique et préciser la réglementation ou le code regulation renseigner dans les bases de registre comme CTIS et EUDAMED.</t>
+    <t>Value Set pour spécifier la catégorie de l'essai clinique et préciser la réglementation ou le code regulation renseigner dans les bases de registre comme CTIS et EUDAMED.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-category-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-category-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
